--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nppa-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nppa-Npr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
     <t>Nppa</t>
   </si>
   <si>
     <t>Npr2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H2">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I2">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J2">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.947853</v>
+        <v>14.90149</v>
       </c>
       <c r="N2">
-        <v>35.895706</v>
+        <v>29.80298</v>
       </c>
       <c r="O2">
-        <v>0.4337138114960137</v>
+        <v>0.6500037349667589</v>
       </c>
       <c r="P2">
-        <v>0.3586943164132273</v>
+        <v>0.5900818232956493</v>
       </c>
       <c r="Q2">
-        <v>2.9692838263935</v>
+        <v>4.227336641395</v>
       </c>
       <c r="R2">
-        <v>11.877135305574</v>
+        <v>16.90934656558</v>
       </c>
       <c r="S2">
-        <v>0.06715415363518701</v>
+        <v>0.205646842561769</v>
       </c>
       <c r="T2">
-        <v>0.04144589264086635</v>
+        <v>0.150139901208121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H3">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I3">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J3">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.537805333333333</v>
+        <v>4.537805333333334</v>
       </c>
       <c r="N3">
         <v>13.613416</v>
       </c>
       <c r="O3">
-        <v>0.1096570629894806</v>
+        <v>0.1979392943402804</v>
       </c>
       <c r="P3">
-        <v>0.1360345147179691</v>
+        <v>0.2695377889916433</v>
       </c>
       <c r="Q3">
-        <v>0.7507322454439999</v>
+        <v>1.287309574889334</v>
       </c>
       <c r="R3">
-        <v>4.504393472664</v>
+        <v>7.723857449336</v>
       </c>
       <c r="S3">
-        <v>0.01697877047027506</v>
+        <v>0.06262362615818659</v>
       </c>
       <c r="T3">
-        <v>0.01571831956756756</v>
+        <v>0.06858095845935723</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H4">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I4">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J4">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.124261000000001</v>
+        <v>0.06080433333333333</v>
       </c>
       <c r="N4">
-        <v>12.248522</v>
+        <v>0.182413</v>
       </c>
       <c r="O4">
-        <v>0.1479941127725076</v>
+        <v>0.002652288044271442</v>
       </c>
       <c r="P4">
-        <v>0.1223955652484555</v>
+        <v>0.003611672243273299</v>
       </c>
       <c r="Q4">
-        <v>1.0131946777095</v>
+        <v>0.01724930770383333</v>
       </c>
       <c r="R4">
-        <v>4.052778710838</v>
+        <v>0.103495846223</v>
       </c>
       <c r="S4">
-        <v>0.02291469425874973</v>
+        <v>0.00083912542732796</v>
       </c>
       <c r="T4">
-        <v>0.0141423859394572</v>
+        <v>0.0009189507156357177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +726,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H5">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I5">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J5">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.75897433333333</v>
+        <v>3.3677015</v>
       </c>
       <c r="N5">
-        <v>38.276923</v>
+        <v>6.735403</v>
       </c>
       <c r="O5">
-        <v>0.3083234183436765</v>
+        <v>0.1468993069319347</v>
       </c>
       <c r="P5">
-        <v>0.3824890567659189</v>
+        <v>0.1333570966014468</v>
       </c>
       <c r="Q5">
-        <v>2.1108383342195</v>
+        <v>0.9553680838782499</v>
       </c>
       <c r="R5">
-        <v>12.665030005317</v>
+        <v>3.821472335513</v>
       </c>
       <c r="S5">
-        <v>0.04773931024552486</v>
+        <v>0.04647570009210712</v>
       </c>
       <c r="T5">
-        <v>0.04419529292112844</v>
+        <v>0.03393126261256028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1654395</v>
+        <v>0.2836855</v>
       </c>
       <c r="H6">
-        <v>0.330879</v>
+        <v>0.567371</v>
       </c>
       <c r="I6">
-        <v>0.1548351743827375</v>
+        <v>0.3163779398472007</v>
       </c>
       <c r="J6">
-        <v>0.1155465552264825</v>
+        <v>0.2544391223060878</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01289433333333333</v>
+        <v>0.05743633333333333</v>
       </c>
       <c r="N6">
-        <v>0.038683</v>
+        <v>0.172309</v>
       </c>
       <c r="O6">
-        <v>0.000311594398321632</v>
+        <v>0.002505375716754661</v>
       </c>
       <c r="P6">
-        <v>0.0003865468544291306</v>
+        <v>0.003411618867987363</v>
       </c>
       <c r="Q6">
-        <v>0.0021332320595</v>
+        <v>0.01629385493983333</v>
       </c>
       <c r="R6">
-        <v>0.012799392357</v>
+        <v>0.09776312963899998</v>
       </c>
       <c r="S6">
-        <v>4.824577300081406E-05</v>
+        <v>0.0007926456078100435</v>
       </c>
       <c r="T6">
-        <v>4.466415746291862E-05</v>
+        <v>0.0008680493104135937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H7">
         <v>0.230995</v>
       </c>
       <c r="I7">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J7">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.947853</v>
+        <v>14.90149</v>
       </c>
       <c r="N7">
-        <v>35.895706</v>
+        <v>29.80298</v>
       </c>
       <c r="O7">
-        <v>0.4337138114960137</v>
+        <v>0.6500037349667589</v>
       </c>
       <c r="P7">
-        <v>0.3586943164132273</v>
+        <v>0.5900818232956493</v>
       </c>
       <c r="Q7">
-        <v>1.381954767911667</v>
+        <v>1.147389894183333</v>
       </c>
       <c r="R7">
-        <v>8.291728607470001</v>
+        <v>6.884339365100001</v>
       </c>
       <c r="S7">
-        <v>0.03125467561446939</v>
+        <v>0.05581696679075459</v>
       </c>
       <c r="T7">
-        <v>0.02893442609103909</v>
+        <v>0.06112678737469825</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H8">
         <v>0.230995</v>
       </c>
       <c r="I8">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J8">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.537805333333333</v>
+        <v>4.537805333333334</v>
       </c>
       <c r="N8">
         <v>13.613416</v>
       </c>
       <c r="O8">
-        <v>0.1096570629894806</v>
+        <v>0.1979392943402804</v>
       </c>
       <c r="P8">
-        <v>0.1360345147179691</v>
+        <v>0.2695377889916433</v>
       </c>
       <c r="Q8">
-        <v>0.3494034476577777</v>
+        <v>0.3494034476577778</v>
       </c>
       <c r="R8">
         <v>3.14463102892</v>
       </c>
       <c r="S8">
-        <v>0.007902206113173672</v>
+        <v>0.01699739620625694</v>
       </c>
       <c r="T8">
-        <v>0.01097335650951033</v>
+        <v>0.02792151607910737</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,46 +974,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H9">
         <v>0.230995</v>
       </c>
       <c r="I9">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J9">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>6.124261000000001</v>
+        <v>0.06080433333333333</v>
       </c>
       <c r="N9">
-        <v>12.248522</v>
+        <v>0.182413</v>
       </c>
       <c r="O9">
-        <v>0.1479941127725076</v>
+        <v>0.002652288044271442</v>
       </c>
       <c r="P9">
-        <v>0.1223955652484555</v>
+        <v>0.003611672243273299</v>
       </c>
       <c r="Q9">
-        <v>0.4715578898983333</v>
+        <v>0.004681832326111111</v>
       </c>
       <c r="R9">
-        <v>2.82934733939</v>
+        <v>0.042136490935</v>
       </c>
       <c r="S9">
-        <v>0.01066488514995893</v>
+        <v>0.000227756650804761</v>
       </c>
       <c r="T9">
-        <v>0.00987315737802918</v>
+        <v>0.0003741344209666561</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,46 +1036,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H10">
         <v>0.230995</v>
       </c>
       <c r="I10">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J10">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.75897433333333</v>
+        <v>3.3677015</v>
       </c>
       <c r="N10">
-        <v>38.276923</v>
+        <v>6.735403</v>
       </c>
       <c r="O10">
-        <v>0.3083234183436765</v>
+        <v>0.1468993069319347</v>
       </c>
       <c r="P10">
-        <v>0.3824890567659189</v>
+        <v>0.1333570966014468</v>
       </c>
       <c r="Q10">
-        <v>0.9824197587094442</v>
+        <v>0.2593074026641667</v>
       </c>
       <c r="R10">
-        <v>8.841777828384998</v>
+        <v>1.555844415985</v>
       </c>
       <c r="S10">
-        <v>0.02221868008177212</v>
+        <v>0.01261450249516487</v>
       </c>
       <c r="T10">
-        <v>0.03085385197705525</v>
+        <v>0.01381450939013161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.07699833333333332</v>
+        <v>0.07699833333333334</v>
       </c>
       <c r="H11">
         <v>0.230995</v>
       </c>
       <c r="I11">
-        <v>0.07206290135576338</v>
+        <v>0.08587176317319017</v>
       </c>
       <c r="J11">
-        <v>0.08066597313380819</v>
+        <v>0.1035903580850885</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.01289433333333333</v>
+        <v>0.05743633333333333</v>
       </c>
       <c r="N11">
-        <v>0.038683</v>
+        <v>0.172309</v>
       </c>
       <c r="O11">
-        <v>0.000311594398321632</v>
+        <v>0.002505375716754661</v>
       </c>
       <c r="P11">
-        <v>0.0003865468544291306</v>
+        <v>0.003411618867987363</v>
       </c>
       <c r="Q11">
-        <v>0.0009928421761111108</v>
+        <v>0.004422501939444445</v>
       </c>
       <c r="R11">
-        <v>0.008935579584999999</v>
+        <v>0.039802517455</v>
       </c>
       <c r="S11">
-        <v>2.245439638926021E-05</v>
+        <v>0.0002151410302090178</v>
       </c>
       <c r="T11">
-        <v>3.118117817433831E-05</v>
+        <v>0.0003534108201846554</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1166,10 +1166,10 @@
         <v>0.35285</v>
       </c>
       <c r="I12">
-        <v>0.1651165268298953</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J12">
-        <v>0.1232190680329194</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.947853</v>
+        <v>14.90149</v>
       </c>
       <c r="N12">
-        <v>35.895706</v>
+        <v>29.80298</v>
       </c>
       <c r="O12">
-        <v>0.4337138114960137</v>
+        <v>0.6500037349667589</v>
       </c>
       <c r="P12">
-        <v>0.3586943164132273</v>
+        <v>0.5900818232956493</v>
       </c>
       <c r="Q12">
-        <v>3.166449965525</v>
+        <v>2.62899537325</v>
       </c>
       <c r="R12">
-        <v>12.6657998621</v>
+        <v>10.515981493</v>
       </c>
       <c r="S12">
-        <v>0.07161331819237769</v>
+        <v>0.127892487275381</v>
       </c>
       <c r="T12">
-        <v>0.04419797937714298</v>
+        <v>0.0933725272199064</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1228,10 +1228,10 @@
         <v>0.35285</v>
       </c>
       <c r="I13">
-        <v>0.1651165268298953</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J13">
-        <v>0.1232190680329194</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.537805333333333</v>
+        <v>4.537805333333334</v>
       </c>
       <c r="N13">
         <v>13.613416</v>
       </c>
       <c r="O13">
-        <v>0.1096570629894806</v>
+        <v>0.1979392943402804</v>
       </c>
       <c r="P13">
-        <v>0.1360345147179691</v>
+        <v>0.2695377889916433</v>
       </c>
       <c r="Q13">
-        <v>0.8005823059333332</v>
+        <v>0.8005823059333335</v>
       </c>
       <c r="R13">
-        <v>4.803493835599999</v>
+        <v>4.8034938356</v>
       </c>
       <c r="S13">
-        <v>0.01810619338319009</v>
+        <v>0.03894585110961987</v>
       </c>
       <c r="T13">
-        <v>0.01676204612385861</v>
+        <v>0.0426507368060479</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1290,40 +1290,40 @@
         <v>0.35285</v>
       </c>
       <c r="I14">
-        <v>0.1651165268298953</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J14">
-        <v>0.1232190680329194</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.124261000000001</v>
+        <v>0.06080433333333333</v>
       </c>
       <c r="N14">
-        <v>12.248522</v>
+        <v>0.182413</v>
       </c>
       <c r="O14">
-        <v>0.1479941127725076</v>
+        <v>0.002652288044271442</v>
       </c>
       <c r="P14">
-        <v>0.1223955652484555</v>
+        <v>0.003611672243273299</v>
       </c>
       <c r="Q14">
-        <v>1.080472746925</v>
+        <v>0.01072740450833333</v>
       </c>
       <c r="R14">
-        <v>4.321890987700001</v>
+        <v>0.06436442704999999</v>
       </c>
       <c r="S14">
-        <v>0.0244362738922683</v>
+        <v>0.0005218550243714795</v>
       </c>
       <c r="T14">
-        <v>0.01508146748127707</v>
+        <v>0.0005714986490533761</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1352,40 +1352,40 @@
         <v>0.35285</v>
       </c>
       <c r="I15">
-        <v>0.1651165268298953</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J15">
-        <v>0.1232190680329194</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.75897433333333</v>
+        <v>3.3677015</v>
       </c>
       <c r="N15">
-        <v>38.276923</v>
+        <v>6.735403</v>
       </c>
       <c r="O15">
-        <v>0.3083234183436765</v>
+        <v>0.1468993069319347</v>
       </c>
       <c r="P15">
-        <v>0.3824890567659189</v>
+        <v>0.1333570966014468</v>
       </c>
       <c r="Q15">
-        <v>2.251002046758333</v>
+        <v>0.5941467371375</v>
       </c>
       <c r="R15">
-        <v>13.50601228055</v>
+        <v>2.37658694855</v>
       </c>
       <c r="S15">
-        <v>0.0509092919772287</v>
+        <v>0.02890339967587345</v>
       </c>
       <c r="T15">
-        <v>0.04712994510748694</v>
+        <v>0.02110197033835338</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1414,10 +1414,10 @@
         <v>0.35285</v>
       </c>
       <c r="I16">
-        <v>0.1651165268298953</v>
+        <v>0.1967565421480562</v>
       </c>
       <c r="J16">
-        <v>0.1232190680329194</v>
+        <v>0.1582365759013117</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.01289433333333333</v>
+        <v>0.05743633333333333</v>
       </c>
       <c r="N16">
-        <v>0.038683</v>
+        <v>0.172309</v>
       </c>
       <c r="O16">
-        <v>0.000311594398321632</v>
+        <v>0.002505375716754661</v>
       </c>
       <c r="P16">
-        <v>0.0003865468544291306</v>
+        <v>0.003411618867987363</v>
       </c>
       <c r="Q16">
-        <v>0.002274882758333333</v>
+        <v>0.01013320510833333</v>
       </c>
       <c r="R16">
-        <v>0.01364929655</v>
+        <v>0.06079923064999999</v>
       </c>
       <c r="S16">
-        <v>5.144938483051884E-05</v>
+        <v>0.0004929490628103549</v>
       </c>
       <c r="T16">
-        <v>4.762994315381403E-05</v>
+        <v>0.0005398428879506295</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5199516666666666</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H17">
-        <v>1.559855</v>
+        <v>1.078673</v>
       </c>
       <c r="I17">
-        <v>0.486623853305458</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J17">
-        <v>0.5447183771191427</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.947853</v>
+        <v>14.90149</v>
       </c>
       <c r="N17">
-        <v>35.895706</v>
+        <v>29.80298</v>
       </c>
       <c r="O17">
-        <v>0.4337138114960137</v>
+        <v>0.6500037349667589</v>
       </c>
       <c r="P17">
-        <v>0.3586943164132273</v>
+        <v>0.5900818232956493</v>
       </c>
       <c r="Q17">
-        <v>9.332016080438333</v>
+        <v>5.357944974256667</v>
       </c>
       <c r="R17">
-        <v>55.99209648263</v>
+        <v>32.14766984554</v>
       </c>
       <c r="S17">
-        <v>0.2110554861819872</v>
+        <v>0.2606474383388542</v>
       </c>
       <c r="T17">
-        <v>0.1953873859184735</v>
+        <v>0.2854426074929236</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5199516666666666</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H18">
-        <v>1.559855</v>
+        <v>1.078673</v>
       </c>
       <c r="I18">
-        <v>0.486623853305458</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J18">
-        <v>0.5447183771191427</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.537805333333333</v>
+        <v>4.537805333333334</v>
       </c>
       <c r="N18">
         <v>13.613416</v>
       </c>
       <c r="O18">
-        <v>0.1096570629894806</v>
+        <v>0.1979392943402804</v>
       </c>
       <c r="P18">
-        <v>0.1360345147179691</v>
+        <v>0.2695377889916433</v>
       </c>
       <c r="Q18">
-        <v>2.359439446075555</v>
+        <v>1.631602697440889</v>
       </c>
       <c r="R18">
-        <v>21.23495501468</v>
+        <v>14.684424276968</v>
       </c>
       <c r="S18">
-        <v>0.05336174253410038</v>
+        <v>0.07937242086621699</v>
       </c>
       <c r="T18">
-        <v>0.07410050008936225</v>
+        <v>0.1303845776471308</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.5199516666666666</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H19">
-        <v>1.559855</v>
+        <v>1.078673</v>
       </c>
       <c r="I19">
-        <v>0.486623853305458</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J19">
-        <v>0.5447183771191427</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>6.124261000000001</v>
+        <v>0.06080433333333333</v>
       </c>
       <c r="N19">
-        <v>12.248522</v>
+        <v>0.182413</v>
       </c>
       <c r="O19">
-        <v>0.1479941127725076</v>
+        <v>0.002652288044271442</v>
       </c>
       <c r="P19">
-        <v>0.1223955652484555</v>
+        <v>0.003611672243273299</v>
       </c>
       <c r="Q19">
-        <v>3.184319714051667</v>
+        <v>0.02186266421655556</v>
       </c>
       <c r="R19">
-        <v>19.10591828431</v>
+        <v>0.196763977949</v>
       </c>
       <c r="S19">
-        <v>0.07201746542388013</v>
+        <v>0.001063550941767242</v>
       </c>
       <c r="T19">
-        <v>0.06667111366871882</v>
+        <v>0.001747088457617549</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.5199516666666666</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H20">
-        <v>1.559855</v>
+        <v>1.078673</v>
       </c>
       <c r="I20">
-        <v>0.486623853305458</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J20">
-        <v>0.5447183771191427</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.75897433333333</v>
+        <v>3.3677015</v>
       </c>
       <c r="N20">
-        <v>38.276923</v>
+        <v>6.735403</v>
       </c>
       <c r="O20">
-        <v>0.3083234183436765</v>
+        <v>0.1468993069319347</v>
       </c>
       <c r="P20">
-        <v>0.3824890567659189</v>
+        <v>0.1333570966014468</v>
       </c>
       <c r="Q20">
-        <v>6.634049969573888</v>
+        <v>1.210882893369833</v>
       </c>
       <c r="R20">
-        <v>59.70644972616498</v>
+        <v>7.265297360219</v>
       </c>
       <c r="S20">
-        <v>0.1500375298987106</v>
+        <v>0.05890570466878928</v>
       </c>
       <c r="T20">
-        <v>0.208348818267363</v>
+        <v>0.06450935426040147</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1703,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.5199516666666666</v>
+        <v>0.3595576666666667</v>
       </c>
       <c r="H21">
-        <v>1.559855</v>
+        <v>1.078673</v>
       </c>
       <c r="I21">
-        <v>0.486623853305458</v>
+        <v>0.4009937548315529</v>
       </c>
       <c r="J21">
-        <v>0.5447183771191427</v>
+        <v>0.4837339437075119</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,338 +1736,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.01289433333333333</v>
+        <v>0.05743633333333333</v>
       </c>
       <c r="N21">
-        <v>0.038683</v>
+        <v>0.172309</v>
       </c>
       <c r="O21">
-        <v>0.000311594398321632</v>
+        <v>0.002505375716754661</v>
       </c>
       <c r="P21">
-        <v>0.0003865468544291306</v>
+        <v>0.003411618867987363</v>
       </c>
       <c r="Q21">
-        <v>0.006704430107222221</v>
+        <v>0.02065167399522222</v>
       </c>
       <c r="R21">
-        <v>0.06033987096499999</v>
+        <v>0.185865065957</v>
       </c>
       <c r="S21">
-        <v>0.0001516292667796683</v>
+        <v>0.001004640015925245</v>
       </c>
       <c r="T21">
-        <v>0.0002105591752251455</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.38902</v>
-      </c>
-      <c r="I22">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J22">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>17.947853</v>
-      </c>
-      <c r="N22">
-        <v>35.895706</v>
-      </c>
-      <c r="O22">
-        <v>0.4337138114960137</v>
-      </c>
-      <c r="P22">
-        <v>0.3586943164132273</v>
-      </c>
-      <c r="Q22">
-        <v>2.327357924686667</v>
-      </c>
-      <c r="R22">
-        <v>13.96414754812</v>
-      </c>
-      <c r="S22">
-        <v>0.05263617787199238</v>
-      </c>
-      <c r="T22">
-        <v>0.04872863238570543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.38902</v>
-      </c>
-      <c r="I23">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J23">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>4.537805333333333</v>
-      </c>
-      <c r="N23">
-        <v>13.613416</v>
-      </c>
-      <c r="O23">
-        <v>0.1096570629894806</v>
-      </c>
-      <c r="P23">
-        <v>0.1360345147179691</v>
-      </c>
-      <c r="Q23">
-        <v>0.5884323435911111</v>
-      </c>
-      <c r="R23">
-        <v>5.295891092319999</v>
-      </c>
-      <c r="S23">
-        <v>0.01330815048874141</v>
-      </c>
-      <c r="T23">
-        <v>0.01848029242767033</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.38902</v>
-      </c>
-      <c r="I24">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J24">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>6.124261000000001</v>
-      </c>
-      <c r="N24">
-        <v>12.248522</v>
-      </c>
-      <c r="O24">
-        <v>0.1479941127725076</v>
-      </c>
-      <c r="P24">
-        <v>0.1223955652484555</v>
-      </c>
-      <c r="Q24">
-        <v>0.7941533380733334</v>
-      </c>
-      <c r="R24">
-        <v>4.764920028440001</v>
-      </c>
-      <c r="S24">
-        <v>0.01796079404765049</v>
-      </c>
-      <c r="T24">
-        <v>0.01662744078097323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.38902</v>
-      </c>
-      <c r="I25">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J25">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>12.75897433333333</v>
-      </c>
-      <c r="N25">
-        <v>38.276923</v>
-      </c>
-      <c r="O25">
-        <v>0.3083234183436765</v>
-      </c>
-      <c r="P25">
-        <v>0.3824890567659189</v>
-      </c>
-      <c r="Q25">
-        <v>1.654498731717778</v>
-      </c>
-      <c r="R25">
-        <v>14.89048858546</v>
-      </c>
-      <c r="S25">
-        <v>0.03741860614044024</v>
-      </c>
-      <c r="T25">
-        <v>0.05196114849288527</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.1296733333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.38902</v>
-      </c>
-      <c r="I26">
-        <v>0.1213615441261459</v>
-      </c>
-      <c r="J26">
-        <v>0.1358500264876472</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.01289433333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.038683</v>
-      </c>
-      <c r="O26">
-        <v>0.000311594398321632</v>
-      </c>
-      <c r="P26">
-        <v>0.0003865468544291306</v>
-      </c>
-      <c r="Q26">
-        <v>0.001672051184444444</v>
-      </c>
-      <c r="R26">
-        <v>0.01504846066</v>
-      </c>
-      <c r="S26">
-        <v>3.781557732137062E-05</v>
-      </c>
-      <c r="T26">
-        <v>5.251240041291409E-05</v>
+        <v>0.001650315849438485</v>
       </c>
     </row>
   </sheetData>
